--- a/SchandomOutput.xlsx
+++ b/SchandomOutput.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pairing" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -445,19 +445,19 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>CHK</t>
+          <t>JAS</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Second check</t>
+          <t>Fischer Random</t>
         </is>
       </c>
       <c r="G1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H1" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -468,24 +468,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NAK</t>
+          <t>BYE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MIS</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Tokinwerpen</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22</v>
+          <t>THM</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -496,13 +485,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BYE</t>
+          <t>LOK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>THM</t>
-        </is>
+          <t>NAK</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Rondje om het park</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>29</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -513,24 +513,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LOK</t>
+          <t>JAB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>MIS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pinguin</t>
+          <t>Poker Texas Hold'em</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -541,24 +541,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JAS</t>
+          <t>CHK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tafeltennis</t>
+          <t>Pente</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -569,7 +569,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -579,14 +579,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chinees Schaken</t>
+          <t>Jeu de Boule</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -597,7 +597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHK</t>
+          <t>JAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -607,14 +607,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Memory</t>
+          <t>Belgisch Bierschaak</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -625,24 +625,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JAS</t>
+          <t>CHK</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cilinderschaak</t>
+          <t>Stratego</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -653,24 +653,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>MIS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dammen</t>
+          <t>Toupen</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -681,21 +681,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>THM</t>
+          <t>NAK</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LOK</t>
+          <t>JAB</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lost Cities</t>
+          <t>Tafeltennis</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
         <v>24</v>
@@ -709,13 +709,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIS</t>
+          <t>THM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BYE</t>
-        </is>
+          <t>LOK</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tokinwerpen</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>29</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -731,19 +742,8 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NAK</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Tafeltennis</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>28</v>
-      </c>
-      <c r="H12" t="n">
-        <v>24</v>
+          <t>BYE</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -754,24 +754,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NAK</t>
+          <t>BYE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CHK</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Mario Kart VS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>27</v>
-      </c>
-      <c r="H13" t="n">
-        <v>28</v>
+          <t>JAS</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -782,13 +771,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BYE</t>
+          <t>LOK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>WOS</t>
         </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pente</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>19</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -799,24 +799,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LOK</t>
+          <t>JAB</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MIS</t>
+          <t>THM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>De beer is los</t>
+          <t>Koehandel</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -827,24 +827,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>THM</t>
+          <t>NAK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Koehandel</t>
+          <t>Solitaire battle</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -855,24 +855,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>MIS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lost Cities</t>
+          <t>Tokinwerpen</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -888,19 +888,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>JAS</t>
+          <t>CHK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Belgisch Bierschaak</t>
+          <t>Memory</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -911,24 +911,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>JAS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>CHK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>JAS</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>Schaken</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>27</v>
+      </c>
+      <c r="H19" t="n">
         <v>26</v>
-      </c>
-      <c r="H19" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -939,7 +939,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>MIS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -949,14 +949,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Second check</t>
+          <t>Tafeltennis</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>25</v>
       </c>
       <c r="H20" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -967,24 +967,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>THM</t>
+          <t>NAK</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fischer Random</t>
+          <t>Lost Cities</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -995,24 +995,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIS</t>
+          <t>THM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Poker Texas Hold'em</t>
+          <t>Fischer Random</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LOK</t>
+          <t>JAB</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1040,7 +1040,7 @@
         <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NAK</t>
+          <t>BYE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BYE</t>
+          <t>LOK</t>
         </is>
       </c>
     </row>
@@ -1068,13 +1068,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BYE</t>
+          <t>LOK</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CHK</t>
-        </is>
+          <t>JAS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tafeltennis</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>26</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1085,24 +1096,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LOK</t>
+          <t>JAB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NAK</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Rondje om het park</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>29</v>
-      </c>
-      <c r="H26" t="n">
-        <v>21</v>
+          <t>BYE</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1123,14 +1123,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Backgammon</t>
+          <t>Schaken</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H27" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1141,24 +1141,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MIS</t>
+          <t>THM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tafeltennis</t>
+          <t>Jenga</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -1174,19 +1174,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>THM</t>
+          <t>NAK</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Jeu de Boule</t>
+          <t>Wasmandbasketbal</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1197,24 +1197,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JAS</t>
+          <t>CHK</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>MIS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tokinwerpen</t>
+          <t>Weggeefdammen</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1225,24 +1225,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CHK</t>
+          <t>JAS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>MIS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tafeltennis</t>
+          <t>Horde Chess</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H31" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>THM</t>
+          <t>NAK</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JAS</t>
+          <t>CHK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Crazyhouse</t>
+          <t>Mario Kart VS</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H32" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MIS</t>
+          <t>THM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1291,14 +1291,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mario Kart VS</t>
+          <t>Second check</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>20</v>
+      </c>
+      <c r="H33" t="n">
         <v>19</v>
-      </c>
-      <c r="H33" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1314,19 +1314,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Schaken</t>
+          <t>Belgisch Bierschaak</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H34" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1337,24 +1337,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NAK</t>
+          <t>BYE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JAB</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Mario Kart Race</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>28</v>
-      </c>
-      <c r="H35" t="n">
-        <v>23</v>
+          <t>ROS</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1365,13 +1354,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BYE</t>
+          <t>LOK</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LOK</t>
-        </is>
+          <t>JAB</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Jeu de Boule</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>28</v>
+      </c>
+      <c r="H36" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -1382,24 +1382,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LOK</t>
+          <t>JAB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CHK</t>
+          <t>JAS</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Wasmandbasketbal</t>
+          <t>Dammen</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1410,13 +1410,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BYE</t>
-        </is>
+          <t>LOK</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Lost Cities</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>21</v>
+      </c>
+      <c r="H38" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -1427,24 +1438,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NAK</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Solitaire battle</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>19</v>
-      </c>
-      <c r="H39" t="n">
-        <v>25</v>
+          <t>BYE</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1483,24 +1483,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JAS</t>
+          <t>CHK</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MIS</t>
+          <t>THM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Second check</t>
+          <t>Jeu de Boule</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H41" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -1511,24 +1511,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>MIS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>THM</t>
+          <t>NAK</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Jenga</t>
+          <t>Mario Kart Race</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H42" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -1539,24 +1539,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CHK</t>
+          <t>JAS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>THM</t>
+          <t>NAK</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Mario Kart Race</t>
+          <t>Jeu de Boule</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H43" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
@@ -1567,24 +1567,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>THM</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>MIS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>BRB</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Toupen</t>
+          <t>Betoverde doolhof</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H44" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
@@ -1600,19 +1600,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JAS</t>
+          <t>CHK</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Fischer Random</t>
+          <t>Tafeltennis</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H45" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -1623,24 +1623,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NAK</t>
+          <t>BYE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>TWB</t>
         </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Wasmandbasketbal</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>29</v>
-      </c>
-      <c r="H46" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -1651,13 +1640,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BYE</t>
+          <t>LOK</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ROS</t>
-        </is>
+          <t>BRB</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Pinguin</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>25</v>
+      </c>
+      <c r="H47" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -1668,24 +1668,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LOK</t>
+          <t>JAB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>JAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Jeu de Boule</t>
+          <t>Go-Moku</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -1696,24 +1696,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CHK</t>
+          <t>JAS</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Stratego</t>
+          <t>Cilinderschaak</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -1724,24 +1724,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LOK</t>
+          <t>JAB</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Go-Moku</t>
+          <t>Backgammon</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -1757,8 +1757,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BYE</t>
-        </is>
+          <t>LOK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Go-Moku</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>20</v>
+      </c>
+      <c r="H51" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="52">
@@ -1769,24 +1780,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>JAS</t>
+          <t>CHK</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NAK</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Poker Texas Hold'em</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>16</v>
-      </c>
-      <c r="H52" t="n">
-        <v>20</v>
+          <t>BYE</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>MIS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1807,14 +1807,14 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Belgisch Bierschaak</t>
+          <t>Wasmandbasketbal</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -1825,24 +1825,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>NAK</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>THM</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Betoverde doolhof</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H54" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -1853,24 +1853,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CHK</t>
+          <t>JAS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MIS</t>
+          <t>THM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Weggeefdammen</t>
+          <t>Crazyhouse</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H55" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>THM</t>
+          <t>NAK</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1898,7 +1898,7 @@
         <v>21</v>
       </c>
       <c r="H56" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
@@ -1909,24 +1909,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NAK</t>
+          <t>BYE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BRB</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Jeu de Boule</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>26</v>
-      </c>
-      <c r="H57" t="n">
-        <v>24</v>
+          <t>MIS</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1937,13 +1926,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BYE</t>
+          <t>LOK</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>JAS</t>
-        </is>
+          <t>CHK</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Wasmandbasketbal</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>22</v>
+      </c>
+      <c r="H58" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LOK</t>
+          <t>JAB</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1964,14 +1964,14 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tafeltennis</t>
+          <t>Abalone</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>22</v>
+      </c>
+      <c r="H59" t="n">
         <v>26</v>
-      </c>
-      <c r="H59" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="60">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>JAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Toupen</t>
+          <t>Tafeltennis</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H60" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
@@ -2010,24 +2010,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>BRB</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CHK</t>
+          <t>JAS</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Pente</t>
+          <t>Second check</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H61" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
@@ -2043,19 +2043,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>JAB</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Abalone</t>
+          <t>Chinees Schaken</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H62" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
@@ -2066,24 +2066,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JAS</t>
+          <t>CHK</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LOK</t>
+          <t>JAB</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Horde Chess</t>
+          <t>Mario Kart Race</t>
         </is>
       </c>
       <c r="G63" t="n">
         <v>29</v>
       </c>
       <c r="H63" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -2094,13 +2094,24 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>MIS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BYE</t>
-        </is>
+          <t>LOK</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>De beer is los</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>28</v>
+      </c>
+      <c r="H64" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -2111,24 +2122,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>THM</t>
+          <t>NAK</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NAK</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Set</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>21</v>
-      </c>
-      <c r="H65" t="n">
-        <v>22</v>
+          <t>BYE</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MIS</t>
+          <t>THM</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2149,14 +2149,14 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Wasmandbasketbal</t>
+          <t>Backgammon</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H66" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
